--- a/python/sim/security_ledger_state_update/test.xlsx
+++ b/python/sim/security_ledger_state_update/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kearn\OneDrive\Desktop\Repos\catalyst-network-simulation\python\sim\security_ledger_state_update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F44BF8E-5223-46A9-AE76-BA62EA1CB584}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8CBA96-0859-4A2D-91E9-0ABF07862EF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -916,7 +918,7 @@
         <v>100</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C15">
         <v>0.95</v>
